--- a/data/trans_dic/P3A$otraNOcobra-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraNOcobra-Dificultad-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.03803582278418976</v>
+        <v>0.03803582278418978</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.06081398196529715</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02331365758741093</v>
+        <v>0.02377262006316329</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04677719646555584</v>
+        <v>0.0477328771325823</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04096611239688044</v>
+        <v>0.03988172090032222</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05691918085282604</v>
+        <v>0.05764462495690629</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07603526037421787</v>
+        <v>0.07935080100248287</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06313006895309101</v>
+        <v>0.06279927190720691</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.03356815408266448</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05412467465523384</v>
+        <v>0.05412467465523386</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04461425183329463</v>
+        <v>0.04461425183329462</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02483064858548574</v>
+        <v>0.02599119335391856</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04454331490475706</v>
+        <v>0.0454144592494179</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03823692722237516</v>
+        <v>0.03805203455800608</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04354793959691681</v>
+        <v>0.04412419274993388</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0647665009871316</v>
+        <v>0.06555132616926898</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05198225654892861</v>
+        <v>0.05172535713763346</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.02742565395980614</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.03093632908385855</v>
+        <v>0.03093632908385856</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.02918196583490572</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01857805903034561</v>
+        <v>0.01851924703747118</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02427482403247036</v>
+        <v>0.02364218341224772</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02374200254245486</v>
+        <v>0.02349949752360635</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03938449515768671</v>
+        <v>0.0389573282459548</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03898723597576153</v>
+        <v>0.03984714125311276</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03658453128958096</v>
+        <v>0.03592889572897316</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.02620347384569473</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02609831096318955</v>
+        <v>0.02609831096318956</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01768787244222375</v>
+        <v>0.01836064779672446</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01858594097036266</v>
+        <v>0.01858571210944888</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0209699224182278</v>
+        <v>0.02053284699124291</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03669370420436385</v>
+        <v>0.03620585778083452</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03597409826307405</v>
+        <v>0.03568924093901955</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03315501095128137</v>
+        <v>0.03356663417605034</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.03023940507933874</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04180287358625719</v>
+        <v>0.0418028735862572</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.03619514630522919</v>
+        <v>0.0361951463052292</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02533210630644889</v>
+        <v>0.02550720973063637</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03738835903310078</v>
+        <v>0.03744310992998603</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03293153462192485</v>
+        <v>0.03263711089558072</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03589010187819187</v>
+        <v>0.03564405018830612</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04731059302582385</v>
+        <v>0.04730520036478811</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.040129641236323</v>
+        <v>0.04003201522946424</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11613</v>
+        <v>11842</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29143</v>
+        <v>29738</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45929</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28353</v>
+        <v>28714</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>47371</v>
+        <v>49437</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>70778</v>
+        <v>70407</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23841</v>
+        <v>24955</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>49674</v>
+        <v>50645</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>79353</v>
+        <v>78970</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41812</v>
+        <v>42365</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>72226</v>
+        <v>73101</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>107879</v>
+        <v>107346</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19442</v>
+        <v>19380</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>25431</v>
+        <v>24769</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>49719</v>
+        <v>49211</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41215</v>
+        <v>40768</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40845</v>
+        <v>41746</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>76612</v>
+        <v>75239</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17254</v>
+        <v>17910</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16920</v>
+        <v>16919</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>39545</v>
+        <v>38721</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35793</v>
+        <v>35317</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>32749</v>
+        <v>32490</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>62523</v>
+        <v>63300</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>88161</v>
+        <v>88770</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>138194</v>
+        <v>138396</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>236329</v>
+        <v>234216</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>124904</v>
+        <v>124048</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>174868</v>
+        <v>174848</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>287985</v>
+        <v>287284</v>
       </c>
     </row>
     <row r="24">
